--- a/Payslip process/DataBases/payslip_template_employees.xlsx
+++ b/Payslip process/DataBases/payslip_template_employees.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkhoa\Documents\UiPath\Final Project-HR Process\HR Payroll Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Payslip process\DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B12D9AB6-74EF-4357-A73B-82BDF7877A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE6A0D6-9786-40A2-92AC-7EB215D44FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="1404" windowWidth="21408" windowHeight="9000" xr2:uid="{F02BCD34-8A2E-4C13-922F-FC2A6D996D89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F02BCD34-8A2E-4C13-922F-FC2A6D996D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Payslip For the Month of August 2019</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>Currency Pay:</t>
+  </si>
+  <si>
+    <t>Eloy</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>(318) 872-9889</t>
+  </si>
+  <si>
+    <t>Tech</t>
   </si>
 </sst>
 </file>
@@ -272,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,6 +315,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -362,7 +376,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -681,86 +694,88 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:F11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="28" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -771,90 +786,114 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="3">
+        <v>9</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="4"/>
       <c r="H9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="I9" s="11">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="19">
+        <v>80</v>
+      </c>
       <c r="H10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="43" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="4">
+        <v>80</v>
+      </c>
+      <c r="H11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="12">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
       <c r="H12" s="7"/>
       <c r="I12" s="13"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -865,9 +904,9 @@
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -877,7 +916,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="14"/>
@@ -889,7 +928,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="14"/>
@@ -901,7 +940,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="14"/>
@@ -913,7 +952,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="4"/>
       <c r="C18" s="15"/>
@@ -925,7 +964,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -937,7 +976,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -949,7 +988,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="14"/>
@@ -961,7 +1000,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="14"/>
@@ -973,7 +1012,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="14"/>
@@ -985,7 +1024,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="4"/>
       <c r="C24" s="15"/>
@@ -997,7 +1036,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="4"/>
       <c r="C25" s="15"/>
@@ -1009,7 +1048,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="15"/>

--- a/Payslip process/DataBases/payslip_template_employees.xlsx
+++ b/Payslip process/DataBases/payslip_template_employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Payslip process\DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE6A0D6-9786-40A2-92AC-7EB215D44FD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ADBA22-679E-427C-989E-5843EFAAFA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F02BCD34-8A2E-4C13-922F-FC2A6D996D89}"/>
+    <workbookView xWindow="25440" yWindow="5175" windowWidth="14400" windowHeight="10755" xr2:uid="{F02BCD34-8A2E-4C13-922F-FC2A6D996D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,13 +82,13 @@
     <t>Currency Pay:</t>
   </si>
   <si>
-    <t>Eloy</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>(318) 872-9889</t>
+    <t>Jerica</t>
+  </si>
+  <si>
+    <t>Thacker</t>
+  </si>
+  <si>
+    <t>(916) 984-8382</t>
   </si>
   <si>
     <t>Tech</t>
@@ -792,7 +792,7 @@
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="3">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="43" t="s">
@@ -822,12 +822,14 @@
         <v>8</v>
       </c>
       <c r="F9" s="22"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <v>23</v>
+      </c>
       <c r="H9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="11">
-        <v>1120</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -873,7 +875,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="12">
-        <v>1120</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">

--- a/Payslip process/DataBases/payslip_template_employees.xlsx
+++ b/Payslip process/DataBases/payslip_template_employees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Payslip process\DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ADBA22-679E-427C-989E-5843EFAAFA71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C6AD0-4F14-444C-8E7F-ABE20844748D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25440" yWindow="5175" windowWidth="14400" windowHeight="10755" xr2:uid="{F02BCD34-8A2E-4C13-922F-FC2A6D996D89}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Payslip For the Month of August 2019</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Telephone:</t>
   </si>
   <si>
-    <t>Address:</t>
-  </si>
-  <si>
     <t>Hourly Rate:</t>
   </si>
   <si>
@@ -82,16 +79,16 @@
     <t>Currency Pay:</t>
   </si>
   <si>
-    <t>Jerica</t>
-  </si>
-  <si>
-    <t>Thacker</t>
-  </si>
-  <si>
-    <t>(916) 984-8382</t>
-  </si>
-  <si>
-    <t>Tech</t>
+    <t>Brande</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>(607) 746-9486</t>
+  </si>
+  <si>
+    <t>Customer service</t>
   </si>
 </sst>
 </file>
@@ -694,7 +691,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +789,7 @@
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="3">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="43" t="s">
@@ -800,10 +797,10 @@
       </c>
       <c r="F8" s="43"/>
       <c r="G8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="9">
         <v>0</v>
@@ -815,21 +812,21 @@
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="4">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="11">
-        <v>1840</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -838,18 +835,18 @@
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="19">
         <v>80</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="11">
         <v>1</v>
@@ -861,32 +858,30 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="4">
         <v>80</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="12">
-        <v>1840</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="21"/>
       <c r="D12" s="7"/>
       <c r="E12" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="7">

--- a/Payslip process/DataBases/payslip_template_employees.xlsx
+++ b/Payslip process/DataBases/payslip_template_employees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Payslip process\DataBases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0C6AD0-4F14-444C-8E7F-ABE20844748D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF01A55-5712-4680-8D77-C1D418872C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25440" yWindow="5175" windowWidth="14400" windowHeight="10755" xr2:uid="{F02BCD34-8A2E-4C13-922F-FC2A6D996D89}"/>
+    <workbookView xWindow="21285" yWindow="6660" windowWidth="21240" windowHeight="8550" xr2:uid="{F02BCD34-8A2E-4C13-922F-FC2A6D996D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -820,13 +820,13 @@
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="11">
-        <v>640</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="12">
-        <v>640</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
